--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,36 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -106,79 +106,76 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -542,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +550,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
@@ -661,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.797945205479452</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
@@ -761,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
@@ -811,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6101694915254238</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5426356589147286</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5343915343915344</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5302013422818792</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C10">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4901960784313725</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4266666666666667</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
@@ -1111,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3111111111111111</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7875</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.25</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1581769436997319</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K15">
-        <v>0.75625</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.09333333333333334</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,37 +1308,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.02415875754961173</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1131</v>
+        <v>268</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,37 +1358,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01516129032258065</v>
+        <v>0.01838709677419355</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E18">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F18">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3053</v>
+        <v>3043</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,37 +1408,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01358313817330211</v>
+        <v>0.01218940459446789</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="F19">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,13 +1458,13 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1479,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1487,13 +1484,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1513,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6411764705882353</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L22">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M22">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1539,13 +1536,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1557,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1565,13 +1562,13 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>0.5846153846153846</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1583,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1591,13 +1588,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5830508474576271</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L25">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1609,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1617,13 +1614,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1635,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1643,13 +1640,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1661,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1669,13 +1666,13 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1695,13 +1692,13 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5098039215686274</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1713,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1721,13 +1718,13 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1739,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1747,13 +1744,13 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>0.410958904109589</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1765,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1773,51 +1770,25 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>0.3205128205128205</v>
+        <v>0.01068846274756366</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33">
-        <v>0.009416195856873822</v>
-      </c>
-      <c r="L33">
-        <v>30</v>
-      </c>
-      <c r="M33">
-        <v>45</v>
-      </c>
-      <c r="N33">
-        <v>0.67</v>
-      </c>
-      <c r="O33">
-        <v>0.33</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>3156</v>
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
